--- a/src/main/resources/master_json.xlsx
+++ b/src/main/resources/master_json.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="496">
   <si>
     <t>id</t>
   </si>
@@ -906,6 +906,9 @@
   </si>
   <si>
     <t>fruits</t>
+  </si>
+  <si>
+    <t>null</t>
   </si>
   <si>
     <t>QTROUV79</t>
@@ -2903,21 +2906,23 @@
       <c r="I17" t="s" s="0">
         <v>297</v>
       </c>
-      <c r="J17" s="0"/>
+      <c r="J17" t="s" s="0">
+        <v>298</v>
+      </c>
       <c r="K17" t="s" s="0">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L17" t="s" s="0">
         <v>83</v>
       </c>
       <c r="M17" t="s" s="0">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N17" t="s" s="0">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O17" t="s" s="0">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="P17" t="s" s="0">
         <v>87</v>
@@ -2944,16 +2949,16 @@
         <v>207</v>
       </c>
       <c r="X17" t="s" s="0">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Y17" t="s" s="0">
         <v>51</v>
       </c>
       <c r="Z17" t="s" s="0">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AA17" t="s" s="0">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="18">
@@ -2961,10 +2966,10 @@
         <v>139</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D18" t="s" s="0">
         <v>293</v>
@@ -2973,32 +2978,34 @@
         <v>97</v>
       </c>
       <c r="F18" t="s" s="0">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G18" t="s" s="0">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H18" t="s" s="0">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="I18" t="s" s="0">
-        <v>310</v>
-      </c>
-      <c r="J18" s="0"/>
+        <v>311</v>
+      </c>
+      <c r="J18" t="s" s="0">
+        <v>298</v>
+      </c>
       <c r="K18" t="s" s="0">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L18" t="s" s="0">
         <v>123</v>
       </c>
       <c r="M18" t="s" s="0">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N18" t="s" s="0">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O18" t="s" s="0">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P18" t="s" s="0">
         <v>43</v>
@@ -3016,7 +3023,7 @@
         <v>108</v>
       </c>
       <c r="U18" t="s" s="0">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="V18" t="s" s="0">
         <v>207</v>
@@ -3025,27 +3032,27 @@
         <v>207</v>
       </c>
       <c r="X18" t="s" s="0">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Y18" t="s" s="0">
         <v>51</v>
       </c>
       <c r="Z18" t="s" s="0">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AA18" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D19" t="s" s="0">
         <v>293</v>
@@ -3054,35 +3061,37 @@
         <v>116</v>
       </c>
       <c r="F19" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G19" t="s" s="0">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H19" t="s" s="0">
         <v>243</v>
       </c>
       <c r="I19" t="s" s="0">
-        <v>324</v>
-      </c>
-      <c r="J19" s="0"/>
+        <v>325</v>
+      </c>
+      <c r="J19" t="s" s="0">
+        <v>298</v>
+      </c>
       <c r="K19" t="s" s="0">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L19" t="s" s="0">
         <v>123</v>
       </c>
       <c r="M19" t="s" s="0">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N19" t="s" s="0">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O19" t="s" s="0">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P19" t="s" s="0">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q19" t="s" s="0">
         <v>88</v>
@@ -3097,7 +3106,7 @@
         <v>179</v>
       </c>
       <c r="U19" t="s" s="0">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="V19" t="s" s="0">
         <v>207</v>
@@ -3106,27 +3115,27 @@
         <v>207</v>
       </c>
       <c r="X19" t="s" s="0">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Y19" t="s" s="0">
         <v>51</v>
       </c>
       <c r="Z19" t="s" s="0">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AA19" t="s" s="0">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D20" t="s" s="0">
         <v>293</v>
@@ -3135,32 +3144,34 @@
         <v>31</v>
       </c>
       <c r="F20" t="s" s="0">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G20" t="s" s="0">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H20" t="s" s="0">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="I20" t="s" s="0">
-        <v>310</v>
-      </c>
-      <c r="J20" s="0"/>
+        <v>311</v>
+      </c>
+      <c r="J20" t="s" s="0">
+        <v>298</v>
+      </c>
       <c r="K20" t="s" s="0">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L20" t="s" s="0">
         <v>152</v>
       </c>
       <c r="M20" t="s" s="0">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N20" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="O20" t="s" s="0">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="P20" t="s" s="0">
         <v>107</v>
@@ -3187,16 +3198,16 @@
         <v>207</v>
       </c>
       <c r="X20" t="s" s="0">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Y20" t="s" s="0">
         <v>51</v>
       </c>
       <c r="Z20" t="s" s="0">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AA20" t="s" s="0">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="21">
@@ -3204,44 +3215,46 @@
         <v>148</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D21" t="s" s="0">
         <v>293</v>
       </c>
       <c r="E21" t="s" s="0">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F21" t="s" s="0">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G21" t="s" s="0">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H21" t="s" s="0">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="I21" t="s" s="0">
-        <v>353</v>
-      </c>
-      <c r="J21" s="0"/>
+        <v>354</v>
+      </c>
+      <c r="J21" t="s" s="0">
+        <v>298</v>
+      </c>
       <c r="K21" t="s" s="0">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L21" t="s" s="0">
         <v>83</v>
       </c>
       <c r="M21" t="s" s="0">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N21" t="s" s="0">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O21" t="s" s="0">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="P21" t="s" s="0">
         <v>107</v>
@@ -3268,61 +3281,63 @@
         <v>207</v>
       </c>
       <c r="X21" t="s" s="0">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y21" t="s" s="0">
         <v>51</v>
       </c>
       <c r="Z21" t="s" s="0">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AA21" t="s" s="0">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D22" t="s" s="0">
         <v>293</v>
       </c>
       <c r="E22" t="s" s="0">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F22" t="s" s="0">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G22" t="s" s="0">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H22" t="s" s="0">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="I22" t="s" s="0">
-        <v>366</v>
-      </c>
-      <c r="J22" s="0"/>
+        <v>367</v>
+      </c>
+      <c r="J22" t="s" s="0">
+        <v>298</v>
+      </c>
       <c r="K22" t="s" s="0">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L22" t="s" s="0">
         <v>123</v>
       </c>
       <c r="M22" t="s" s="0">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N22" t="s" s="0">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="O22" t="s" s="0">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="P22" t="s" s="0">
         <v>146</v>
@@ -3349,61 +3364,63 @@
         <v>207</v>
       </c>
       <c r="X22" t="s" s="0">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Y22" t="s" s="0">
         <v>51</v>
       </c>
       <c r="Z22" t="s" s="0">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AA22" t="s" s="0">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D23" t="s" s="0">
         <v>293</v>
       </c>
       <c r="E23" t="s" s="0">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F23" t="s" s="0">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G23" t="s" s="0">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H23" t="s" s="0">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I23" t="s" s="0">
-        <v>379</v>
-      </c>
-      <c r="J23" s="0"/>
+        <v>380</v>
+      </c>
+      <c r="J23" t="s" s="0">
+        <v>298</v>
+      </c>
       <c r="K23" t="s" s="0">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L23" t="s" s="0">
         <v>39</v>
       </c>
       <c r="M23" t="s" s="0">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N23" t="s" s="0">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="O23" t="s" s="0">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="P23" t="s" s="0">
         <v>67</v>
@@ -3421,7 +3438,7 @@
         <v>108</v>
       </c>
       <c r="U23" t="s" s="0">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="V23" t="s" s="0">
         <v>207</v>
@@ -3430,64 +3447,66 @@
         <v>207</v>
       </c>
       <c r="X23" t="s" s="0">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Y23" t="s" s="0">
         <v>51</v>
       </c>
       <c r="Z23" t="s" s="0">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AA23" t="s" s="0">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D24" t="s" s="0">
         <v>293</v>
       </c>
       <c r="E24" t="s" s="0">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F24" t="s" s="0">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G24" t="s" s="0">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H24" t="s" s="0">
         <v>176</v>
       </c>
       <c r="I24" t="s" s="0">
-        <v>394</v>
-      </c>
-      <c r="J24" s="0"/>
+        <v>395</v>
+      </c>
+      <c r="J24" t="s" s="0">
+        <v>298</v>
+      </c>
       <c r="K24" t="s" s="0">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L24" t="s" s="0">
         <v>94</v>
       </c>
       <c r="M24" t="s" s="0">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N24" t="s" s="0">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O24" t="s" s="0">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="P24" t="s" s="0">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q24" t="s" s="0">
         <v>147</v>
@@ -3502,7 +3521,7 @@
         <v>47</v>
       </c>
       <c r="U24" t="s" s="0">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="V24" t="s" s="0">
         <v>207</v>
@@ -3511,16 +3530,16 @@
         <v>207</v>
       </c>
       <c r="X24" t="s" s="0">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Y24" t="s" s="0">
         <v>51</v>
       </c>
       <c r="Z24" t="s" s="0">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AA24" t="s" s="0">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="25">
@@ -3528,10 +3547,10 @@
         <v>48</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D25" t="s" s="0">
         <v>293</v>
@@ -3543,29 +3562,31 @@
         <v>152</v>
       </c>
       <c r="G25" t="s" s="0">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H25" t="s" s="0">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="I25" t="s" s="0">
-        <v>407</v>
-      </c>
-      <c r="J25" s="0"/>
+        <v>408</v>
+      </c>
+      <c r="J25" t="s" s="0">
+        <v>298</v>
+      </c>
       <c r="K25" t="s" s="0">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L25" t="s" s="0">
         <v>83</v>
       </c>
       <c r="M25" t="s" s="0">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="N25" t="s" s="0">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="O25" t="s" s="0">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="P25" t="s" s="0">
         <v>67</v>
@@ -3583,7 +3604,7 @@
         <v>47</v>
       </c>
       <c r="U25" t="s" s="0">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="V25" t="s" s="0">
         <v>207</v>
@@ -3592,16 +3613,16 @@
         <v>207</v>
       </c>
       <c r="X25" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Y25" t="s" s="0">
         <v>51</v>
       </c>
       <c r="Z25" t="s" s="0">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AA25" t="s" s="0">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="26">
@@ -3609,32 +3630,34 @@
         <v>90</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D26" t="s" s="0">
         <v>293</v>
       </c>
       <c r="E26" t="s" s="0">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F26" t="s" s="0">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="G26" t="s" s="0">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H26" t="s" s="0">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="I26" t="s" s="0">
-        <v>366</v>
-      </c>
-      <c r="J26" s="0"/>
+        <v>367</v>
+      </c>
+      <c r="J26" t="s" s="0">
+        <v>298</v>
+      </c>
       <c r="K26" t="s" s="0">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L26" t="s" s="0">
         <v>152</v>
@@ -3643,10 +3666,10 @@
         <v>285</v>
       </c>
       <c r="N26" t="s" s="0">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="O26" t="s" s="0">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="P26" t="s" s="0">
         <v>146</v>
@@ -3673,61 +3696,63 @@
         <v>207</v>
       </c>
       <c r="X26" t="s" s="0">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Y26" t="s" s="0">
         <v>51</v>
       </c>
       <c r="Z26" t="s" s="0">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AA26" t="s" s="0">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D27" t="s" s="0">
         <v>293</v>
       </c>
       <c r="E27" t="s" s="0">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F27" t="s" s="0">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G27" t="s" s="0">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H27" t="s" s="0">
         <v>83</v>
       </c>
       <c r="I27" t="s" s="0">
-        <v>366</v>
-      </c>
-      <c r="J27" s="0"/>
+        <v>367</v>
+      </c>
+      <c r="J27" t="s" s="0">
+        <v>298</v>
+      </c>
       <c r="K27" t="s" s="0">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L27" t="s" s="0">
         <v>39</v>
       </c>
       <c r="M27" t="s" s="0">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N27" t="s" s="0">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="O27" t="s" s="0">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="P27" t="s" s="0">
         <v>206</v>
@@ -3745,7 +3770,7 @@
         <v>47</v>
       </c>
       <c r="U27" t="s" s="0">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="V27" t="s" s="0">
         <v>207</v>
@@ -3754,61 +3779,63 @@
         <v>207</v>
       </c>
       <c r="X27" t="s" s="0">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Y27" t="s" s="0">
         <v>51</v>
       </c>
       <c r="Z27" t="s" s="0">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AA27" t="s" s="0">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D28" t="s" s="0">
         <v>293</v>
       </c>
       <c r="E28" t="s" s="0">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F28" t="s" s="0">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="G28" t="s" s="0">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H28" t="s" s="0">
         <v>90</v>
       </c>
       <c r="I28" t="s" s="0">
-        <v>447</v>
-      </c>
-      <c r="J28" s="0"/>
+        <v>448</v>
+      </c>
+      <c r="J28" t="s" s="0">
+        <v>298</v>
+      </c>
       <c r="K28" t="s" s="0">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="L28" t="s" s="0">
         <v>123</v>
       </c>
       <c r="M28" t="s" s="0">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="N28" t="s" s="0">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O28" t="s" s="0">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="P28" t="s" s="0">
         <v>87</v>
@@ -3835,16 +3862,16 @@
         <v>207</v>
       </c>
       <c r="X28" t="s" s="0">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Y28" t="s" s="0">
         <v>51</v>
       </c>
       <c r="Z28" t="s" s="0">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AA28" t="s" s="0">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="29">
@@ -3852,44 +3879,46 @@
         <v>162</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D29" t="s" s="0">
         <v>293</v>
       </c>
       <c r="E29" t="s" s="0">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F29" t="s" s="0">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G29" t="s" s="0">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H29" t="s" s="0">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="I29" t="s" s="0">
-        <v>461</v>
-      </c>
-      <c r="J29" s="0"/>
+        <v>462</v>
+      </c>
+      <c r="J29" t="s" s="0">
+        <v>298</v>
+      </c>
       <c r="K29" t="s" s="0">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L29" t="s" s="0">
         <v>34</v>
       </c>
       <c r="M29" t="s" s="0">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N29" t="s" s="0">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="O29" t="s" s="0">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="P29" t="s" s="0">
         <v>87</v>
@@ -3907,7 +3936,7 @@
         <v>128</v>
       </c>
       <c r="U29" t="s" s="0">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="V29" t="s" s="0">
         <v>207</v>
@@ -3916,61 +3945,63 @@
         <v>207</v>
       </c>
       <c r="X29" t="s" s="0">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="Y29" t="s" s="0">
         <v>51</v>
       </c>
       <c r="Z29" t="s" s="0">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AA29" t="s" s="0">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D30" t="s" s="0">
         <v>293</v>
       </c>
       <c r="E30" t="s" s="0">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F30" t="s" s="0">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="G30" t="s" s="0">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H30" t="s" s="0">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="I30" t="s" s="0">
-        <v>474</v>
-      </c>
-      <c r="J30" s="0"/>
+        <v>475</v>
+      </c>
+      <c r="J30" t="s" s="0">
+        <v>298</v>
+      </c>
       <c r="K30" t="s" s="0">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="L30" t="s" s="0">
         <v>39</v>
       </c>
       <c r="M30" t="s" s="0">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="N30" t="s" s="0">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="O30" t="s" s="0">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="P30" t="s" s="0">
         <v>164</v>
@@ -3988,7 +4019,7 @@
         <v>108</v>
       </c>
       <c r="U30" t="s" s="0">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="V30" t="s" s="0">
         <v>207</v>
@@ -3997,39 +4028,39 @@
         <v>207</v>
       </c>
       <c r="X30" t="s" s="0">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="Y30" t="s" s="0">
         <v>51</v>
       </c>
       <c r="Z30" t="s" s="0">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AA30" t="s" s="0">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D31" t="s" s="0">
         <v>293</v>
       </c>
       <c r="E31" t="s" s="0">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F31" t="s" s="0">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="G31" t="s" s="0">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H31" t="s" s="0">
         <v>27</v>
@@ -4037,21 +4068,23 @@
       <c r="I31" t="s" s="0">
         <v>297</v>
       </c>
-      <c r="J31" s="0"/>
+      <c r="J31" t="s" s="0">
+        <v>298</v>
+      </c>
       <c r="K31" t="s" s="0">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="L31" t="s" s="0">
         <v>83</v>
       </c>
       <c r="M31" t="s" s="0">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="N31" t="s" s="0">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="O31" t="s" s="0">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="P31" t="s" s="0">
         <v>255</v>
@@ -4078,16 +4111,16 @@
         <v>207</v>
       </c>
       <c r="X31" t="s" s="0">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="Y31" t="s" s="0">
         <v>51</v>
       </c>
       <c r="Z31" t="s" s="0">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AA31" t="s" s="0">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
   </sheetData>
